--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3732.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3732.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.235232153753704</v>
+        <v>2.86075496673584</v>
       </c>
       <c r="B1">
-        <v>2.321614301339799</v>
+        <v>1.884145617485046</v>
       </c>
       <c r="C1">
-        <v>5.439267966801072</v>
+        <v>1.673977851867676</v>
       </c>
       <c r="D1">
-        <v>2.964422441919135</v>
+        <v>1.745153665542603</v>
       </c>
       <c r="E1">
-        <v>1.157088191994273</v>
+        <v>1.675243377685547</v>
       </c>
     </row>
   </sheetData>
